--- a/pasta_teste.xlsx
+++ b/pasta_teste.xlsx
@@ -16,10 +16,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1767959927" val="1230" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1767959927" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1767959927" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1767959927"/>
+      <pm:revision xmlns:pm="smNativeData" day="1767960203" val="1230" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1767960203" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1767960203" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1767960203"/>
     </ext>
   </extLst>
 </workbook>
@@ -34,7 +34,7 @@
     <t>CNPJ</t>
   </si>
   <si>
-    <t>Insc_estadual</t>
+    <t>insc_estadual</t>
   </si>
   <si>
     <t>CD 02</t>
@@ -5480,7 +5480,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1767959927" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1767960203" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -5495,7 +5495,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1767959927" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1767960203" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -5504,26 +5504,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1767959927" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -5539,26 +5528,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1767959927"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1767959927"/>
+          <pm:border xmlns:pm="smNativeData" id="1767960203"/>
         </ext>
       </extLst>
     </border>
@@ -5575,7 +5545,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1767959927" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1767960203" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -5845,15 +5815,14 @@
   <dimension ref="A1:C608"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="8.285714" customWidth="1"/>
     <col min="2" max="2" width="21.410714" customWidth="1"/>
-    <col min="3" max="4" width="15.919643" customWidth="1"/>
-    <col min="5" max="8" width="14.044643" customWidth="1"/>
+    <col min="3" max="8" width="14.044643" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12525,7 +12494,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1767959927" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1767960203" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -12534,16 +12503,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1767959927" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1767959927" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1767959927" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1767959927" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1767960203" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1767960203" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1767960203" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1767960203" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1767959927" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1767960203" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
